--- a/data/trans_dic/P34B02_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34B02_R-Edad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.08366714052513957</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2261311371154592</v>
+        <v>0.2261311371154593</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.06533448693832632</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05828788117611889</v>
+        <v>0.05720828771688428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07709304628030779</v>
+        <v>0.07710383180978995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2937542361309983</v>
+        <v>0.2922426603475497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.031595145112332</v>
+        <v>0.03134493685820679</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05964258981230153</v>
+        <v>0.05864537667370111</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1680005829157676</v>
+        <v>0.1780334630788388</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05010797553520011</v>
+        <v>0.05071412694957347</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0752974883133931</v>
+        <v>0.07556964531139169</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2520362564058763</v>
+        <v>0.2561955651171079</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.10839015782952</v>
+        <v>0.1107217784963701</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1369759241715696</v>
+        <v>0.1399287970435071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4425646918106387</v>
+        <v>0.4500758997939741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07620773052996473</v>
+        <v>0.07431134875597098</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1140472649519442</v>
+        <v>0.1135944372364553</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.295732388160075</v>
+        <v>0.2923429263591449</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08187673622107253</v>
+        <v>0.08541335119849927</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1173348379821265</v>
+        <v>0.1155672523649261</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3517079035074278</v>
+        <v>0.3579287143081189</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04277233598572135</v>
+        <v>0.04118365625517405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1026449217208444</v>
+        <v>0.1020883774738573</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1966981445143632</v>
+        <v>0.1999016053677647</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02467968608787843</v>
+        <v>0.02345792617763</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0383411744591218</v>
+        <v>0.03731396395587257</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1136071623158977</v>
+        <v>0.1130032291463707</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03906170839682843</v>
+        <v>0.03678267805538948</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07652544885009083</v>
+        <v>0.07697400642379665</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.165974223764297</v>
+        <v>0.1623440263885786</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07870417511215223</v>
+        <v>0.07522031458596103</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1602444374586128</v>
+        <v>0.1607569043641161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2989271245258914</v>
+        <v>0.3026003623288235</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06028366320487908</v>
+        <v>0.05810907923095202</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07561302036168492</v>
+        <v>0.07519825896340974</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1792611367006898</v>
+        <v>0.1768242962210654</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06258111953333567</v>
+        <v>0.06114369564873736</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1103618901312647</v>
+        <v>0.1109386983805649</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2319870101997534</v>
+        <v>0.2269352646648856</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.08393850397717387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2288579410782858</v>
+        <v>0.2288579410782857</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.03357971383669158</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04004226187475264</v>
+        <v>0.03964826200418493</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06440101457887119</v>
+        <v>0.06403724357163222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1913202114203637</v>
+        <v>0.1941096138093496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02219475855095755</v>
+        <v>0.0222867892659618</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05743688444333129</v>
+        <v>0.05682288369399342</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1325984347065552</v>
+        <v>0.1321225965120951</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03396212483492037</v>
+        <v>0.03362791243992841</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06514578748313442</v>
+        <v>0.06495842340710581</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1711682069529672</v>
+        <v>0.1733921007196889</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07478919311179236</v>
+        <v>0.07341538254386036</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1080199895468552</v>
+        <v>0.1101459845252774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2660005407917997</v>
+        <v>0.2677675259262008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05046025567189052</v>
+        <v>0.04885858668471155</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1006210489945237</v>
+        <v>0.09707546545480732</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1798822515109075</v>
+        <v>0.1822174065967596</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05544888949906829</v>
+        <v>0.0545217288499914</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09540525539331333</v>
+        <v>0.09524533446093696</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2145399498675047</v>
+        <v>0.2160085042196043</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.04190250335211552</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1548787476345026</v>
+        <v>0.1548787476345025</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.04554702842657139</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0322605294815837</v>
+        <v>0.03268712329289624</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04952131987253587</v>
+        <v>0.04703841423494167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1482764559606097</v>
+        <v>0.1519309081826558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0275663352850141</v>
+        <v>0.02742677052713323</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02888601473011454</v>
+        <v>0.02843764277007969</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1352439484958821</v>
+        <v>0.1354234589187516</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03388734405946185</v>
+        <v>0.03406832881323032</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04211438734599339</v>
+        <v>0.04282196298913906</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.149233643725099</v>
+        <v>0.1490169121963612</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06859254911184812</v>
+        <v>0.06766441514286435</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08822951337971482</v>
+        <v>0.08794173384541636</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2085603255530388</v>
+        <v>0.2070609265290987</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06357521125387255</v>
+        <v>0.06411302302296906</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06107159237599134</v>
+        <v>0.05863572579524393</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1763344710388253</v>
+        <v>0.1755560103904873</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05943642983749068</v>
+        <v>0.06243508822349629</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06694655272562657</v>
+        <v>0.06945407059175676</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1858856338372563</v>
+        <v>0.1838192300670462</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.04355464577426552</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1293045395956637</v>
+        <v>0.1293045395956638</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.04952626266957894</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02498868579315348</v>
+        <v>0.02335678138042369</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02673126306460193</v>
+        <v>0.02786882296084075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1299891518251884</v>
+        <v>0.1311064098701681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03736938338420232</v>
+        <v>0.03727328300332988</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02646410449246808</v>
+        <v>0.02595493117866803</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1105094243823185</v>
+        <v>0.1086114633648306</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03670710327330808</v>
+        <v>0.03572177932181222</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03069305605763316</v>
+        <v>0.02933106628961126</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1260118620356066</v>
+        <v>0.1268647795068972</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06460504526544981</v>
+        <v>0.06319887877932882</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06234935250187583</v>
+        <v>0.06549673843942012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.187318518576031</v>
+        <v>0.1884662966556941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08345202510243244</v>
+        <v>0.08489809123454632</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06755516304619054</v>
+        <v>0.06555840379468122</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1498991115461091</v>
+        <v>0.1495310435281142</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06674857405192933</v>
+        <v>0.06664656960345032</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06003311903224675</v>
+        <v>0.05590630321591335</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1619657101148707</v>
+        <v>0.1634955306307465</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.03753517668037897</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.1026445120070884</v>
+        <v>0.1026445120070883</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.04211546439503024</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03662170778032149</v>
+        <v>0.03640217563912477</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02266779837725364</v>
+        <v>0.02276649284130389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08212564528283797</v>
+        <v>0.0818205495716687</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01156750425878147</v>
+        <v>0.01373784768693287</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01950265203207264</v>
+        <v>0.02006601628280293</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08300113952110448</v>
+        <v>0.08484150505522783</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02747476268531033</v>
+        <v>0.02826481904169495</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02626395154368965</v>
+        <v>0.02622898117573575</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08878830392377364</v>
+        <v>0.0878037296285068</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1006421115789509</v>
+        <v>0.09737703671801272</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07067466579261564</v>
+        <v>0.0686772618056381</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.13520180350649</v>
+        <v>0.1337998866088819</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04585790810750222</v>
+        <v>0.04558533960794713</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06468328464965439</v>
+        <v>0.06117728643396968</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1265106805129468</v>
+        <v>0.1272376377555016</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06139733698546612</v>
+        <v>0.06244849261764174</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05729159947847955</v>
+        <v>0.05771557334510516</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1215134555251481</v>
+        <v>0.1226369361195561</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.01574151641419568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.05389543996373951</v>
+        <v>0.05389543996373952</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.01420974065859881</v>
@@ -1318,7 +1318,7 @@
         <v>0.02253996730389622</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.04538878906515843</v>
+        <v>0.04538878906515844</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004329788752195153</v>
+        <v>0.004482756738655361</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006214958434626142</v>
+        <v>0.005953011741757484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03534034511832367</v>
+        <v>0.03382905618688099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.00543941479872261</v>
+        <v>0.005361884189992392</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01261677163776368</v>
+        <v>0.0124885337184818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02800890259691681</v>
+        <v>0.02691730824147003</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.008187299938618905</v>
+        <v>0.006819191797730582</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01203036457002372</v>
+        <v>0.01279395389842129</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03449866006153122</v>
+        <v>0.03477069068754458</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04326149091417234</v>
+        <v>0.04386198090613953</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04016289387231332</v>
+        <v>0.0353243193954678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08038679919692071</v>
+        <v>0.07880055622362733</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03279737283159559</v>
+        <v>0.03165772953017271</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04886663295024834</v>
+        <v>0.05064072885818618</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05443506928994977</v>
+        <v>0.05453682602990852</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02803487680048154</v>
+        <v>0.02805699608804272</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03884408896300987</v>
+        <v>0.03830829080168451</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05973025023215382</v>
+        <v>0.05950253012637663</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.07559984595252381</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.195415752650396</v>
+        <v>0.1954157526503959</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.03811681412042272</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04573963639783691</v>
+        <v>0.04630160944144025</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06717621595733821</v>
+        <v>0.066057573211288</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1786989794733453</v>
+        <v>0.1797131116115354</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03179402566752425</v>
+        <v>0.03181173765077334</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04465727154842899</v>
+        <v>0.04533263919178642</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.125573127300645</v>
+        <v>0.1260916677171474</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04063278113493324</v>
+        <v>0.04057068393409177</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0582955930728952</v>
+        <v>0.05806759344065669</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.156151203797323</v>
+        <v>0.1557148372379167</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06190647062915604</v>
+        <v>0.06204739043470985</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08573384716000033</v>
+        <v>0.08453122657119418</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2116674758469237</v>
+        <v>0.2129702940658258</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.045437978934699</v>
+        <v>0.04583184117169124</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05961931036950546</v>
+        <v>0.06046473762604151</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.145856692556365</v>
+        <v>0.1460825651930765</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05076562781234743</v>
+        <v>0.05073156814903131</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07032825910948466</v>
+        <v>0.06997540464007232</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1745985881246455</v>
+        <v>0.1741567853101867</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26403</v>
+        <v>25914</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32338</v>
+        <v>32342</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>119791</v>
+        <v>119175</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13593</v>
+        <v>13486</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23604</v>
+        <v>23209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60499</v>
+        <v>64112</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>44256</v>
+        <v>44791</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>61384</v>
+        <v>61606</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>193539</v>
+        <v>196733</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49098</v>
+        <v>50154</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57456</v>
+        <v>58695</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>180475</v>
+        <v>183538</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32787</v>
+        <v>31971</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45135</v>
+        <v>44956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>106496</v>
+        <v>105276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>72314</v>
+        <v>75437</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95653</v>
+        <v>94213</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>270078</v>
+        <v>274855</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29350</v>
+        <v>28260</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60611</v>
+        <v>60283</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>93325</v>
+        <v>94845</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15061</v>
+        <v>14315</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21607</v>
+        <v>21028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>56927</v>
+        <v>56624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>50641</v>
+        <v>47687</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>88313</v>
+        <v>88831</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>161914</v>
+        <v>158373</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54006</v>
+        <v>51615</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>94624</v>
+        <v>94926</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>141828</v>
+        <v>143571</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36788</v>
+        <v>35461</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42611</v>
+        <v>42378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>89825</v>
+        <v>88604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>81133</v>
+        <v>79269</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>127362</v>
+        <v>128028</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>226313</v>
+        <v>221384</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27303</v>
+        <v>27035</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43091</v>
+        <v>42847</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>118565</v>
+        <v>120293</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15735</v>
+        <v>15800</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37988</v>
+        <v>37582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>82189</v>
+        <v>81894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>47235</v>
+        <v>46770</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>86675</v>
+        <v>86426</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>212173</v>
+        <v>214929</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50996</v>
+        <v>50059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>72276</v>
+        <v>73698</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>164846</v>
+        <v>165941</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>35774</v>
+        <v>34639</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>66549</v>
+        <v>64204</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>111498</v>
+        <v>112945</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>77119</v>
+        <v>75830</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126935</v>
+        <v>126722</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>265934</v>
+        <v>267755</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19828</v>
+        <v>20090</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31993</v>
+        <v>30389</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>103885</v>
+        <v>106445</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16986</v>
+        <v>16900</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18749</v>
+        <v>18458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>99606</v>
+        <v>99739</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>41709</v>
+        <v>41932</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>54543</v>
+        <v>55460</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>214465</v>
+        <v>214154</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42158</v>
+        <v>41588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57001</v>
+        <v>56815</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>146121</v>
+        <v>145070</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39175</v>
+        <v>39506</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39640</v>
+        <v>38059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>129869</v>
+        <v>129296</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>73155</v>
+        <v>76846</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>86704</v>
+        <v>89952</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>267138</v>
+        <v>264169</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10731</v>
+        <v>10030</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12775</v>
+        <v>13319</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>78856</v>
+        <v>79534</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16734</v>
+        <v>16691</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13149</v>
+        <v>12896</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>67204</v>
+        <v>66050</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32201</v>
+        <v>31336</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29919</v>
+        <v>28591</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>153076</v>
+        <v>154112</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27743</v>
+        <v>27139</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29798</v>
+        <v>31302</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>113635</v>
+        <v>114331</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>37370</v>
+        <v>38017</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33565</v>
+        <v>32573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>91159</v>
+        <v>90935</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>58554</v>
+        <v>58464</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>58518</v>
+        <v>54496</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>196751</v>
+        <v>198610</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11345</v>
+        <v>11277</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7579</v>
+        <v>7612</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33432</v>
+        <v>33308</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4095</v>
+        <v>4863</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>7367</v>
+        <v>7580</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>36451</v>
+        <v>37260</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>18237</v>
+        <v>18762</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>18702</v>
+        <v>18677</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>75137</v>
+        <v>74304</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31178</v>
+        <v>30166</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23629</v>
+        <v>22961</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>55038</v>
+        <v>54467</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16234</v>
+        <v>16137</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>24435</v>
+        <v>23110</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>55559</v>
+        <v>55878</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>40754</v>
+        <v>41452</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>40797</v>
+        <v>41099</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>102830</v>
+        <v>103781</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1082</v>
+        <v>1120</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1597</v>
+        <v>1530</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10963</v>
+        <v>10494</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2116</v>
+        <v>2086</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5049</v>
+        <v>4998</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>12980</v>
+        <v>12474</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5230</v>
+        <v>4356</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7906</v>
+        <v>8408</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>26688</v>
+        <v>26899</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10809</v>
+        <v>10959</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10322</v>
+        <v>9078</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24936</v>
+        <v>24444</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12757</v>
+        <v>12314</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19555</v>
+        <v>20265</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25226</v>
+        <v>25273</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17910</v>
+        <v>17924</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>25527</v>
+        <v>25175</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>46208</v>
+        <v>46032</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>156645</v>
+        <v>158570</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>228020</v>
+        <v>224223</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>630183</v>
+        <v>633759</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>113073</v>
+        <v>113136</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>158290</v>
+        <v>160683</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>468166</v>
+        <v>470099</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>283663</v>
+        <v>283229</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>404507</v>
+        <v>402925</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1132836</v>
+        <v>1129671</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>212012</v>
+        <v>212494</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>291011</v>
+        <v>286929</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>746446</v>
+        <v>751041</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>161596</v>
+        <v>162997</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>211323</v>
+        <v>214320</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>543788</v>
+        <v>544630</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>354401</v>
+        <v>354163</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>488000</v>
+        <v>485552</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1266667</v>
+        <v>1263462</v>
       </c>
     </row>
     <row r="36">
